--- a/data/trans_dic/P19_2_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P19_2_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q17"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -532,12 +533,18 @@
     <col width="14" customWidth="1" min="15" max="15"/>
     <col width="14" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que se siente bien consigo mismo (en desacuerdo, muy en desacuerdo)</t>
+          <t>Población que se siente bien consigo mismo (en desacuerdo, muy en desacuerdo) (tasa de respuesta: 99,67%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -550,24 +557,30 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
       <c r="O1" s="3" t="n"/>
       <c r="P1" s="3" t="n"/>
-      <c r="Q1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -594,57 +607,87 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="O2" s="3" t="inlineStr">
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="P2" s="3" t="inlineStr">
+      <c r="T2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="Q2" s="3" t="inlineStr">
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -666,6 +709,12 @@
       <c r="O3" s="2" t="n"/>
       <c r="P3" s="2" t="n"/>
       <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -680,77 +729,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>8,02%</t>
+          <t>91,98%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>96,97%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>94,88%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>8,32%</t>
+          <t>90,46%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>7,27%</t>
+          <t>91,58%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>15,12%</t>
+          <t>92,73%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>9,66%</t>
+          <t>90,97%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>9,14%</t>
+          <t>84,88%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>8,04%</t>
+          <t>91,61%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>15,92%</t>
+          <t>90,54%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>11,38%</t>
+          <t>92,25%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>6,15%</t>
+          <t>91,17%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>7,25%</t>
+          <t>84,08%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>8,18%</t>
+          <t>87,18%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>11,34%</t>
+          <t>88,62%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>94,38%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>92,73%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>91,37%</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>91,37%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>88,66%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>89,2%</t>
         </is>
       </c>
     </row>
@@ -763,77 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,36; 12,35</t>
+          <t>87,04; 95,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,91; 7,07</t>
+          <t>92,85; 99,27</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,49; 10,75</t>
+          <t>90,64; 98,0</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>4,42; 15,63</t>
+          <t>83,24; 95,28</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>3,45; 13,17</t>
+          <t>85,24; 96,7</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,31; 21,01</t>
+          <t>86,92; 97,19</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>5,44; 15,5</t>
+          <t>84,46; 95,68</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>5,65; 13,98</t>
+          <t>79,33; 89,67</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4,6; 12,68</t>
+          <t>86,32; 95,47</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>9,99; 25,05</t>
+          <t>85,82; 94,28</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>8,34; 14,93</t>
+          <t>87,72; 95,58</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,58; 9,22</t>
+          <t>86,38; 94,94</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>4,94; 10,64</t>
+          <t>75,36; 90,4</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>5,32; 12,06</t>
+          <t>78,75; 91,9</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>7,45; 16,47</t>
+          <t>84,71; 91,6</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>91,03; 96,73</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>89,44; 95,24</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>86,75; 94,53</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>86,81; 94,24</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>83,31; 92,61</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>84,56; 92,91</t>
         </is>
       </c>
     </row>
@@ -850,77 +959,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,61%</t>
+          <t>93,39%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2,63%</t>
+          <t>97,36%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3,03%</t>
+          <t>97,02%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>5,99%</t>
+          <t>93,86%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>8,12%</t>
+          <t>95,03%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>11,02%</t>
+          <t>91,88%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>7,51%</t>
+          <t>90,94%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>6,01%</t>
+          <t>88,98%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>9,39%</t>
+          <t>92,33%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>8,04%</t>
+          <t>94,05%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>8,72%</t>
+          <t>90,55%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>92,29%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>4,44%</t>
+          <t>91,96%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>7,59%</t>
+          <t>88,75%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>8,08%</t>
+          <t>91,28%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>94,97%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>95,61%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>92,32%</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>93,75%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>91,92%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>89,88%</t>
         </is>
       </c>
     </row>
@@ -933,77 +1072,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>3,61; 10,91</t>
+          <t>89,16; 96,24</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,96; 5,76</t>
+          <t>94,31; 99,04</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1,1; 6,28</t>
+          <t>93,89; 98,81</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2,19; 16,45</t>
+          <t>82,8; 97,57</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,56; 15,55</t>
+          <t>90,42; 97,9</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,04; 16,19</t>
+          <t>84,05; 96,17</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,18; 12,27</t>
+          <t>82,84; 96,11</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,34; 10,33</t>
+          <t>83,39; 92,32</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>5,82; 14,15</t>
+          <t>87,64; 95,66</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>4,66; 12,62</t>
+          <t>90,27; 96,67</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6,03; 11,62</t>
+          <t>85,88; 94,16</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,0; 7,76</t>
+          <t>87,58; 95,93</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>2,66; 6,93</t>
+          <t>86,51; 95,68</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>5,11; 13,02</t>
+          <t>82,89; 92,92</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>4,99; 11,78</t>
+          <t>88,37; 94,01</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>91,89; 96,86</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>93,26; 97,34</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>86,65; 94,96</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>90,58; 96,11</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>88,04; 94,8</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>84,75; 93,09</t>
         </is>
       </c>
     </row>
@@ -1020,77 +1189,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>6,72%</t>
+          <t>93,27%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>95,75%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,31%</t>
+          <t>96,7%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>3,85%</t>
+          <t>96,23%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>5,95%</t>
+          <t>93,36%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>6,9%</t>
+          <t>94,05%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>5,46%</t>
+          <t>92,94%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>4,88%</t>
+          <t>93,1%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>6,72%</t>
+          <t>94,38%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>8,5%</t>
+          <t>94,91%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>6,81%</t>
+          <t>93,25%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>4,65%</t>
+          <t>93,45%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>4,11%</t>
+          <t>91,5%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>90,84%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>7,15%</t>
+          <t>93,19%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>95,05%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>95,78%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>94,71%</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>93,41%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>92,85%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>91,95%</t>
         </is>
       </c>
     </row>
@@ -1103,77 +1302,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>4,17; 10,23</t>
+          <t>89,75; 95,82</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,89; 6,8</t>
+          <t>92,56; 97,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,6; 5,91</t>
+          <t>94,25; 98,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,97; 7,13</t>
+          <t>93,28; 98,06</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,39; 9,57</t>
+          <t>89,08; 96,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,5; 9,9</t>
+          <t>90,22; 96,6</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,31; 8,82</t>
+          <t>88,8; 96,21</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>3,07; 7,72</t>
+          <t>89,83; 95,47</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4,54; 10,0</t>
+          <t>91,15; 96,75</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>5,55; 12,47</t>
+          <t>92,13; 96,76</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>5,06; 9,05</t>
+          <t>90,22; 95,54</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,18; 6,87</t>
+          <t>90,12; 95,85</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>2,79; 5,93</t>
+          <t>87,38; 94,48</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>3,74; 7,33</t>
+          <t>86,53; 94,14</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>4,95; 9,8</t>
+          <t>90,92; 95,14</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>93,01; 96,7</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>93,88; 97,15</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>92,52; 96,12</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>91,0; 95,46</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>90,04; 94,98</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>89,02; 94,51</t>
         </is>
       </c>
     </row>
@@ -1190,77 +1419,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>4,38%</t>
+          <t>95,62%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>96,12%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>5,85%</t>
+          <t>94,1%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7,46%</t>
+          <t>92,4%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>91,86%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>11,27%</t>
+          <t>95,44%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,83%</t>
+          <t>89,57%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>6,66%</t>
+          <t>88,73%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>9,15%</t>
+          <t>92,96%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>12,42%</t>
+          <t>93,35%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>90,82%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>87,4%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>87,58%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>8,32%</t>
+          <t>89,17%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>8,28%</t>
+          <t>92,02%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>94,5%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>93,72%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>91,6%</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>89,63%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>91,72%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>89,38%</t>
         </is>
       </c>
     </row>
@@ -1273,77 +1532,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,43; 7,16</t>
+          <t>92,64; 97,58</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,65; 8,5</t>
+          <t>90,9; 98,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>3,58; 8,8</t>
+          <t>90,53; 96,52</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,84; 14,76</t>
+          <t>84,91; 95,67</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>2,04; 8,09</t>
+          <t>87,92; 94,68</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>8,38; 14,83</t>
+          <t>91,96; 97,95</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,41; 10,18</t>
+          <t>85,0; 93,39</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>4,47; 9,97</t>
+          <t>84,95; 91,54</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>6,56; 12,71</t>
+          <t>89,21; 95,2</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>8,3; 16,84</t>
+          <t>90,49; 95,53</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>5,97; 10,28</t>
+          <t>87,53; 93,49</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,49; 7,84</t>
+          <t>82,97; 90,78</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>4,67; 8,22</t>
+          <t>82,53; 91,56</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>6,15; 12,13</t>
+          <t>84,91; 92,89</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>6,2; 11,41</t>
+          <t>89,67; 93,9</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>91,69; 96,17</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>91,53; 95,29</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>88,15; 93,88</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>86,61; 91,81</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>88,64; 94,11</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>86,08; 92,1</t>
         </is>
       </c>
     </row>
@@ -1360,77 +1649,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>96,11%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>98,21%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>3,64%</t>
+          <t>96,27%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>5,45%</t>
+          <t>94,49%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>11,13%</t>
+          <t>93,93%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>8,45%</t>
+          <t>88,88%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>6,98%</t>
+          <t>89,62%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>6,03%</t>
+          <t>91,55%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>6,66%</t>
+          <t>92,83%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>13,1%</t>
+          <t>93,84%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>6,13%</t>
+          <t>93,36%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>4,34%</t>
+          <t>90,52%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>4,84%</t>
+          <t>86,9%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>85,12%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>12,17%</t>
+          <t>93,87%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>95,49%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>95,06%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>93,91%</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>92,18%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>87,84%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>87,33%</t>
         </is>
       </c>
     </row>
@@ -1443,77 +1762,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1,97; 6,79</t>
+          <t>92,97; 98,05</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,43; 4,45</t>
+          <t>95,4; 99,46</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>1,84; 6,48</t>
+          <t>93,36; 98,11</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,22; 8,56</t>
+          <t>91,61; 96,77</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,69; 17,31</t>
+          <t>89,89; 96,58</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,17; 12,2</t>
+          <t>82,15; 93,5</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>4,14; 10,96</t>
+          <t>84,03; 93,27</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>3,65; 9,35</t>
+          <t>87,73; 94,84</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>3,73; 10,64</t>
+          <t>88,64; 95,72</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>9,19; 18,21</t>
+          <t>90,53; 96,48</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>4,25; 8,66</t>
+          <t>89,51; 96,1</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,83; 6,55</t>
+          <t>85,7; 94,4</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>3,23; 6,76</t>
+          <t>81,96; 91,0</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>4,21; 8,56</t>
+          <t>79,73; 89,59</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>9,0; 15,68</t>
+          <t>91,46; 95,88</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>93,32; 97,18</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>92,95; 96,84</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>91,45; 95,9</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>88,87; 94,53</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>83,49; 91,03</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>84,44; 90,61</t>
         </is>
       </c>
     </row>
@@ -1530,77 +1879,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>3,28%</t>
+          <t>96,72%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>2,65%</t>
+          <t>97,2%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>7,48%</t>
+          <t>92,66%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>5,99%</t>
+          <t>93,75%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>3,8%</t>
+          <t>98,75%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>8,95%</t>
+          <t>96,2%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>8,99%</t>
+          <t>92,75%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>8,21%</t>
+          <t>91,06%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>7,61%</t>
+          <t>90,08%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>9,69%</t>
+          <t>91,95%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>92,51%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>6,21%</t>
+          <t>90,85%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>7,9%</t>
+          <t>90,31%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>6,9%</t>
+          <t>85,73%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>7,18%</t>
+          <t>93,54%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>93,2%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>92,26%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>93,05%</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>94,37%</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>92,82%</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>88,67%</t>
         </is>
       </c>
     </row>
@@ -1613,77 +1992,107 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>1,27; 6,17</t>
+          <t>93,13; 98,66</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,98; 5,92</t>
+          <t>93,8; 98,96</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>4,03; 13,72</t>
+          <t>86,91; 96,22</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,07; 9,92</t>
+          <t>88,97; 96,72</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,43; 8,19</t>
+          <t>92,49; 100,0</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>5,9; 14,95</t>
+          <t>91,69; 98,42</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>5,23; 14,83</t>
+          <t>85,85; 96,48</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>5,15; 12,35</t>
+          <t>84,22; 94,55</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>4,76; 11,55</t>
+          <t>82,86; 94,12</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>4,93; 16,75</t>
+          <t>87,87; 94,91</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>4,31; 9,51</t>
+          <t>88,55; 95,41</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>4,05; 9,71</t>
+          <t>84,7; 95,19</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>5,4; 11,19</t>
+          <t>82,36; 94,47</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>4,56; 9,74</t>
+          <t>78,0; 90,65</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>4,4; 11,97</t>
+          <t>90,0; 95,78</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>89,03; 95,68</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>89,03; 94,53</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>90,09; 95,14</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>90,53; 96,91</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>87,9; 95,84</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>83,96; 91,97</t>
         </is>
       </c>
     </row>
@@ -1700,77 +2109,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>5,5%</t>
+          <t>94,5%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>96,84%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>4,73%</t>
+          <t>95,32%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>6,1%</t>
+          <t>93,64%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>6,65%</t>
+          <t>94,07%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>10,03%</t>
+          <t>93,35%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>7,46%</t>
+          <t>91,16%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>6,76%</t>
+          <t>89,97%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>7,91%</t>
+          <t>92,41%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>11,02%</t>
+          <t>93,16%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>7,81%</t>
+          <t>92,15%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>5,26%</t>
+          <t>90,93%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>5,77%</t>
+          <t>88,99%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>7,02%</t>
+          <t>87,82%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>8,84%</t>
+          <t>92,2%</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>94,58%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>94,22%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>92,88%</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>92,47%</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>91,16%</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>89,49%</t>
         </is>
       </c>
     </row>
@@ -1783,94 +2222,2774 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>4,33; 6,95</t>
+          <t>93,04; 95,65</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>2,08; 3,93</t>
+          <t>95,51; 97,81</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,63; 6,16</t>
+          <t>93,88; 96,32</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,59; 8,25</t>
+          <t>91,63; 95,12</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,17; 8,41</t>
+          <t>92,57; 95,5</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>8,64; 11,81</t>
+          <t>91,58; 94,96</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,12; 9,15</t>
+          <t>88,96; 93,07</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>5,51; 8,02</t>
+          <t>88,3; 91,48</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>6,66; 9,45</t>
+          <t>90,57; 93,85</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>9,16; 13,26</t>
+          <t>91,79; 94,26</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>6,71; 8,81</t>
+          <t>90,69; 93,35</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>4,32; 6,2</t>
+          <t>89,25; 92,55</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>4,88; 6,75</t>
+          <t>86,73; 90,85</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>6,01; 8,41</t>
+          <t>85,62; 89,79</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>7,6; 10,4</t>
+          <t>91,16; 93,26</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>93,55; 95,49</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>93,27; 95,0</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>91,6; 93,98</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>91,26; 93,64</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>89,78; 92,28</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>87,96; 90,86</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A17"/>
+    <mergeCell ref="Q1:W1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="C1:I1"/>
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que se siente bien consigo mismo (en desacuerdo, muy en desacuerdo) (tasa de respuesta: 99,67%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>156.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>128.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>94.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>84.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>165.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>123.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>96.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>112.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>297.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>270.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>293.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>262.0</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>213.0</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>190.0</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>196.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>471824</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>486861</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>497353</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>453189</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>431467</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>39015</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>40086</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>390733</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>429461</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>466189</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>474150</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>435121</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>31445</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>33609</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>862556</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>916322</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>963543</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>927339</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>866588</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>70461</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>73695</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>446473; 489592</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>466163; 498418</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>475120; 513684</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>416990; 477307</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>401615; 455605</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>36570; 40894</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>37215; 42162</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>365185; 412758</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>404650; 447569</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>441875; 485462</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>450860; 491230</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>412228; 453123</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>28183; 33808</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>30361; 35429</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>824446; 891547</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>883823; 939126</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>929388; 989641</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>880465; 959455</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>823340; 893781</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>66211; 73601</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>69859; 76759</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>166.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>181.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>181.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>125.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>189.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>161.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>213.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>210.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>160.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>158.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>145.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>355.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>311.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>394.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>391.0</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>285.0</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>260.0</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>243.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>526189</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>555120</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>548661</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>556070</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>551057</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>45830</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>44565</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>461684</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>476748</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>477770</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>468463</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>466166</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>43408</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>40833</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>987873</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>1031868</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>1026431</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>1024533</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>1017223</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>89237</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>85398</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>502317; 542225</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>537777; 564744</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>530982; 558786</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>490565; 578067</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>524306; 567684</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>41921; 47967</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>40593; 47095</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>432653; 479023</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>452527; 493941</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>458573; 491111</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>444324; 487141</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>442351; 484548</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>40837; 45167</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>38133; 42749</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>956444; 1017429</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>998459; 1052428</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>1001178; 1045014</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>961695; 1053942</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>982739; 1042749</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>85467; 92035</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>80517; 88444</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>233.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>206.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>264.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>263.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>199.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>197.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>169.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>312.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>269.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>344.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>352.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>295.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>222.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>194.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>545.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>475.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>608.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>615.0</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>494.0</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>419.0</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>363.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>630416</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>657166</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>656184</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>652579</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>633803</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>56629</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>56478</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>646337</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>672422</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>679969</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>662177</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>670459</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>49335</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>49831</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>1276752</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>1329588</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>1336153</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>1314756</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>1304262</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>105965</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>106309</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>606611; 647625</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>635299; 670992</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>639537; 667540</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>632560; 664991</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>604745; 652323</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>54320; 58162</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>53962; 58463</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>623613; 662741</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>649405; 689281</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>660061; 693212</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>640664; 678378</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>646602; 687712</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>47113; 50943</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>47467; 51638</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>1245614; 1303478</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>1301082; 1352721</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>1309568; 1355186</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>1284424; 1334361</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>1270703; 1332917</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>102756; 108401</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>102927; 109277</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>279.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>250.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>285.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>292.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>230.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>179.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>183.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>312.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>280.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>333.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>341.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>273.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>198.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>209.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>591.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>530.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>618.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>633.0</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>503.0</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>377.0</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>392.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>608352</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>622122</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>607863</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>584704</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>604608</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>55613</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>51022</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>617271</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>629956</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>626709</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>595292</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>578067</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>45915</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>47495</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>1225623</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>1252078</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>1234572</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>1179996</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>1182675</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>101529</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>98517</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>589399; 620779</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>588370; 636279</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>584772; 623461</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>537300; 605382</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>578652; 623171</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>53583; 57075</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>48417; 53196</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>590991; 636804</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>604545; 645137</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>607474; 641301</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>573720; 612797</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>548748; 600423</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>43270; 48001</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>45223; 49476</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>1194307; 1250635</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>1214863; 1274231</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>1205686; 1255309</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>1135518; 1209452</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>1142935; 1211464</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>98116; 104178</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>94878; 101517</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>229.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>206.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>249.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>241.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>194.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>149.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>163.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>216.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>200.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>241.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>242.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>167.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>185.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>173.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>445.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>406.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>490.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>483.0</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>361.0</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>334.0</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>336.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>492017</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>484314</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>483454</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>461158</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>459331</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>39097</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>40433</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>454528</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>467228</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>468187</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>472362</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>467939</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>42381</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>39668</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>946544</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>951542</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>951641</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>933521</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>927269</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>81478</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>80101</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>475908; 501929</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>470435; 490445</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>468869; 492698</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>447117; 472299</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>439607; 472324</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>36137; 41130</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>37911; 42081</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>435550; 470868</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>446169; 481815</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>451690; 481366</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>452861; 486211</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>443004; 487957</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>39974; 44380</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>37160; 41753</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>922324; 966826</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>929888; 968396</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>930591; 969496</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>909001; 953241</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>894007; 950927</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>77448; 84437</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>77453; 83111</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>206.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>166.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>178.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>175.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>133.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>135.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>136.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>252.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>189.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>229.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>222.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>134.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>140.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>458.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>355.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>407.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>397.0</t>
+        </is>
+      </c>
+      <c r="U19" s="2" t="inlineStr">
+        <is>
+          <t>267.0</t>
+        </is>
+      </c>
+      <c r="V19" s="2" t="inlineStr">
+        <is>
+          <t>248.0</t>
+        </is>
+      </c>
+      <c r="W19" s="2" t="inlineStr">
+        <is>
+          <t>276.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>519180</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>514807</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>477579</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>490592</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>555316</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>44737</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>41772</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>626138</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>611465</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>619326</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>623824</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>635955</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>56614</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>53504</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>1145318</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>1126272</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>1096905</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>1114416</t>
+        </is>
+      </c>
+      <c r="U20" s="2" t="inlineStr">
+        <is>
+          <t>1191271</t>
+        </is>
+      </c>
+      <c r="V20" s="2" t="inlineStr">
+        <is>
+          <t>101351</t>
+        </is>
+      </c>
+      <c r="W20" s="2" t="inlineStr">
+        <is>
+          <t>95276</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>499869; 529601</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>496796; 524142</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>447938; 495941</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>465567; 506097</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>520139; 562350</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>42641; 45770</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>38666; 43452</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>579069; 650112</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>562453; 638884</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>591820; 639276</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>597155; 643369</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>592877; 666311</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>51630; 59225</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>48680; 56574</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>1101876; 1172648</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>1075873; 1156232</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>1058482; 1123948</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>1078881; 1139406</t>
+        </is>
+      </c>
+      <c r="U21" s="2" t="inlineStr">
+        <is>
+          <t>1142825; 1223410</t>
+        </is>
+      </c>
+      <c r="V21" s="2" t="inlineStr">
+        <is>
+          <t>95978; 104651</t>
+        </is>
+      </c>
+      <c r="W21" s="2" t="inlineStr">
+        <is>
+          <t>90214; 98816</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>1269.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>1109.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>1285.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>1254.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>971.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>856.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>833.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>1422.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1238.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>1525.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>1527.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>1152.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>972.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>973.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>2691.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>2347.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>2810.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>2781.0</t>
+        </is>
+      </c>
+      <c r="U22" s="2" t="inlineStr">
+        <is>
+          <t>2123.0</t>
+        </is>
+      </c>
+      <c r="V22" s="2" t="inlineStr">
+        <is>
+          <t>1828.0</t>
+        </is>
+      </c>
+      <c r="W22" s="2" t="inlineStr">
+        <is>
+          <t>1806.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>3247978</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>3320392</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>3271095</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>3198293</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>3235580</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>280922</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>274356</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>3196689</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>3287280</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>3338151</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>3296267</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>3253707</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>269099</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>264941</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>6444667</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>6607671</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>6609245</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>6494560</t>
+        </is>
+      </c>
+      <c r="U23" s="2" t="inlineStr">
+        <is>
+          <t>6489288</t>
+        </is>
+      </c>
+      <c r="V23" s="2" t="inlineStr">
+        <is>
+          <t>550021</t>
+        </is>
+      </c>
+      <c r="W23" s="2" t="inlineStr">
+        <is>
+          <t>539296</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>3198040; 3287672</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>3274716; 3353488</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>3221897; 3305567</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>3129871; 3248910</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>3184046; 3284750</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>275602; 285756</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>267723; 280080</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>3137459; 3250326</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>3222093; 3338575</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>3288812; 3377532</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>3244159; 3339334</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>3193674; 3311650</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>262292; 274724</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>258309; 270880</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>6372496; 6518910</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>6535682; 6671272</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>6542727; 6664180</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>6405221; 6572129</t>
+        </is>
+      </c>
+      <c r="U24" s="2" t="inlineStr">
+        <is>
+          <t>6404067; 6571149</t>
+        </is>
+      </c>
+      <c r="V24" s="2" t="inlineStr">
+        <is>
+          <t>541683; 556741</t>
+        </is>
+      </c>
+      <c r="W24" s="2" t="inlineStr">
+        <is>
+          <t>530092; 547550</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>